--- a/Phenotypes_complete.xlsx
+++ b/Phenotypes_complete.xlsx
@@ -20497,7 +20497,7 @@
   <dimension ref="A2:O1353"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1146" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="C1166" sqref="C1166:C1169"/>
+      <selection activeCell="J1170" sqref="J1170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -53574,13 +53574,27 @@
       <c r="C1165" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1165" s="26"/>
-      <c r="E1165" s="5"/>
-      <c r="F1165" s="27"/>
-      <c r="G1165" s="5"/>
-      <c r="H1165" s="27"/>
-      <c r="I1165" s="5"/>
-      <c r="J1165" s="27"/>
+      <c r="D1165" s="26">
+        <v>45.41</v>
+      </c>
+      <c r="E1165" s="5">
+        <v>7.61</v>
+      </c>
+      <c r="F1165" s="27">
+        <v>1.59</v>
+      </c>
+      <c r="G1165" s="5">
+        <v>2.68</v>
+      </c>
+      <c r="H1165" s="27">
+        <v>20.72</v>
+      </c>
+      <c r="I1165" s="5">
+        <v>5.25</v>
+      </c>
+      <c r="J1165" s="27">
+        <v>4.13</v>
+      </c>
       <c r="K1165" s="13"/>
       <c r="L1165" s="10"/>
       <c r="M1165" s="10"/>
@@ -53592,13 +53606,27 @@
       <c r="C1166" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1166" s="26"/>
-      <c r="E1166" s="5"/>
-      <c r="F1166" s="27"/>
-      <c r="G1166" s="5"/>
-      <c r="H1166" s="27"/>
-      <c r="I1166" s="5"/>
-      <c r="J1166" s="27"/>
+      <c r="D1166" s="26">
+        <v>41.44</v>
+      </c>
+      <c r="E1166" s="5">
+        <v>8.56</v>
+      </c>
+      <c r="F1166" s="27">
+        <v>2.75</v>
+      </c>
+      <c r="G1166" s="5">
+        <v>3.71</v>
+      </c>
+      <c r="H1166" s="27">
+        <v>20.38</v>
+      </c>
+      <c r="I1166" s="5">
+        <v>5.07</v>
+      </c>
+      <c r="J1166" s="27">
+        <v>4.37</v>
+      </c>
       <c r="K1166" s="13"/>
       <c r="L1166" s="10"/>
       <c r="M1166" s="10"/>
@@ -53610,13 +53638,27 @@
       <c r="C1167" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1167" s="26"/>
-      <c r="E1167" s="5"/>
-      <c r="F1167" s="27"/>
-      <c r="G1167" s="5"/>
-      <c r="H1167" s="27"/>
-      <c r="I1167" s="5"/>
-      <c r="J1167" s="27"/>
+      <c r="D1167" s="26">
+        <v>40.33</v>
+      </c>
+      <c r="E1167" s="5">
+        <v>8.35</v>
+      </c>
+      <c r="F1167" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G1167" s="5">
+        <v>3.17</v>
+      </c>
+      <c r="H1167" s="27">
+        <v>20.2</v>
+      </c>
+      <c r="I1167" s="5">
+        <v>5.75</v>
+      </c>
+      <c r="J1167" s="27">
+        <v>3.57</v>
+      </c>
       <c r="K1167" s="13"/>
       <c r="L1167" s="10"/>
       <c r="M1167" s="10"/>
@@ -53628,13 +53670,27 @@
       <c r="C1168" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1168" s="26"/>
-      <c r="E1168" s="5"/>
-      <c r="F1168" s="27"/>
-      <c r="G1168" s="5"/>
-      <c r="H1168" s="27"/>
-      <c r="I1168" s="5"/>
-      <c r="J1168" s="27"/>
+      <c r="D1168" s="26">
+        <v>43.34</v>
+      </c>
+      <c r="E1168" s="5">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="F1168" s="27">
+        <v>2.11</v>
+      </c>
+      <c r="G1168" s="5">
+        <v>3.25</v>
+      </c>
+      <c r="H1168" s="27">
+        <v>21.5</v>
+      </c>
+      <c r="I1168" s="5">
+        <v>7.36</v>
+      </c>
+      <c r="J1168" s="27">
+        <v>3.82</v>
+      </c>
       <c r="K1168" s="13"/>
       <c r="L1168" s="10"/>
       <c r="M1168" s="10"/>
@@ -53646,13 +53702,27 @@
       <c r="C1169" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D1169" s="26"/>
-      <c r="E1169" s="5"/>
-      <c r="F1169" s="27"/>
-      <c r="G1169" s="5"/>
-      <c r="H1169" s="27"/>
-      <c r="I1169" s="5"/>
-      <c r="J1169" s="27"/>
+      <c r="D1169" s="26">
+        <v>46.16</v>
+      </c>
+      <c r="E1169" s="5">
+        <v>6.77</v>
+      </c>
+      <c r="F1169" s="27">
+        <v>1.63</v>
+      </c>
+      <c r="G1169" s="5">
+        <v>2.83</v>
+      </c>
+      <c r="H1169" s="27">
+        <v>20.83</v>
+      </c>
+      <c r="I1169" s="5">
+        <v>5.17</v>
+      </c>
+      <c r="J1169" s="27">
+        <v>3.67</v>
+      </c>
       <c r="K1169" s="13"/>
       <c r="L1169" s="10"/>
       <c r="M1169" s="10"/>
